--- a/src/test/java/com/netbanking/testData/excelData.xlsx
+++ b/src/test/java/com/netbanking/testData/excelData.xlsx
@@ -1,73 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Backup\Selenium - Workspace\IdeaProjects\POM_FWDesign\src\test\java\com\netbanking\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A990E489-0873-44AA-8DBA-02919979E891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9AE22-36E2-477F-83F3-6637485CEF73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="customerData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>username</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dobDay</t>
+  </si>
+  <si>
+    <t>dobMonth</t>
+  </si>
+  <si>
+    <t>dobYear</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>pin</t>
+  </si>
+  <si>
+    <t>mobile number</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
   <si>
     <t>password</t>
   </si>
   <si>
-    <t>mngr263198</t>
-  </si>
-  <si>
-    <t>nygUqut</t>
-  </si>
-  <si>
-    <t>nygUqus</t>
-  </si>
-  <si>
-    <t>mngr263200</t>
-  </si>
-  <si>
-    <t>mngr145744</t>
-  </si>
-  <si>
-    <t>iugYhgt</t>
-  </si>
-  <si>
-    <t>mngr187404</t>
-  </si>
-  <si>
-    <t>ikjThng</t>
+    <t>Velacherry</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t>arun1234</t>
+  </si>
+  <si>
+    <t>Adayar</t>
+  </si>
+  <si>
+    <t>Beasent Nagar</t>
+  </si>
+  <si>
+    <t>Ramesh</t>
+  </si>
+  <si>
+    <t>Suresh</t>
+  </si>
+  <si>
+    <t>Govindan</t>
+  </si>
+  <si>
+    <t>ramesh@gmail.com</t>
+  </si>
+  <si>
+    <t>suresh@gmail.com</t>
+  </si>
+  <si>
+    <t>govindan@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,13 +134,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -110,116 +168,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -362,76 +360,223 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="10" max="10" width="32.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1996</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1">
+        <v>600223</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9790191817</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1998</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1">
+        <v>600332</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9486147660</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1">
+        <v>600145</v>
+      </c>
+      <c r="I4" s="1">
+        <v>8220989894</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{D0A1BDF1-6DB3-4B53-9778-9D8AF3A837D8}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{76C33F77-4A18-4D54-A45E-BDFB2844E8DB}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{118FC443-3961-46DC-8992-13EEE708964B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>